--- a/Spotify/Decades/Origin_by_decade.xlsx
+++ b/Spotify/Decades/Origin_by_decade.xlsx
@@ -1888,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E220"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7395,6 +7395,31 @@
       <c r="E220" t="inlineStr">
         <is>
           <t>spotify:track:2T3jgoAMbBXiMMD8pSc6QL</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Take A Minute</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>K'NAAN</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Troubadour</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>spotify:track:5ojAgSVQftPufiZK4w3SS5</t>
         </is>
       </c>
     </row>
@@ -19180,7 +19205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20487,6 +20512,31 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>spotify:track:6JjPSBUMvfSKYv8QK9NGkw</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>GIRL LIKE ME</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Black Eyed Peas</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TRANSLATION</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>spotify:track:1zLBsSVxETQOfINOLYvT5m</t>
         </is>
       </c>
     </row>
